--- a/format/test.xlsx
+++ b/format/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\input2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\input2015\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Testing</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO UJIAN </t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>PSIKOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAWANCARA </t>
+  </si>
+  <si>
+    <t>YUNUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -50,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,12 +76,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,17 +392,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>96</v>
+      </c>
+      <c r="E2" s="1">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
